--- a/app/templates/template_协同创新专项精品.xlsx
+++ b/app/templates/template_协同创新专项精品.xlsx
@@ -123,7 +123,7 @@
 （万元）</t>
   </si>
   <si>
-    <t>{{project.project_code}}</t>
+    <t>{% for project in projects %}{{project.project_code}}</t>
   </si>
   <si>
     <t>{{project.project_name}}</t>
@@ -144,7 +144,7 @@
     <t>{{project.bank_num}}</t>
   </si>
   <si>
-    <t>{{project.money}}</t>
+    <t>{{project.money}}{% endfor %}</t>
   </si>
   <si>
     <t>合  计</t>
@@ -936,7 +936,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -983,11 +983,11 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1006,9 +1006,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1390,7 +1387,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1571,7 +1568,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" ht="28" spans="1:13">
+    <row r="9" ht="56" spans="1:13">
       <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
@@ -1597,33 +1594,33 @@
       <c r="K9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="13"/>
@@ -1636,10 +1633,10 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="30"/>
+      <c r="M11" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="K2:M2"/>
@@ -1649,6 +1646,7 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="A6:M6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
